--- a/Phrases.xlsx
+++ b/Phrases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Japanese Phrases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42A52B-FA67-4D53-9A97-1F5CFE2BE201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE1463-0D10-419B-AFDE-75161398E4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="277">
   <si>
     <t>Sentence</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,6 +968,161 @@
   </si>
   <si>
     <t>可能性。非常。低的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許します。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回は許します。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まあ、いいでしょう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大目に見ましょう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回限りですよ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後気をつけるように。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原諒你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這次原諒你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎，好吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不深究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就這一次沒有下次了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後請你注意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回＋は＋許す＋ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許す＋ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まあ＋いい＋でしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大目＋に＋見る＋ましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回＋限り＋です＋よ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後＋気＋を＋つける＋ように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大目｜大目に見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後｜きをつける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許可、原諒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寬容。寬容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極限、限度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後。小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっとお尋ねします。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋ねる</t>
+  </si>
+  <si>
+    <t>請問一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋找、詢問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少しよろしいでしょうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以請問一下嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好、行、可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よろしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少し＋よろしい＋でしょう＋か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっと＋お＋尋ねる＋します</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +1130,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +1154,13 @@
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1027,10 +1192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1311,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1495,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1347,8 +1514,11 @@
       <c r="F1" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1367,8 +1537,11 @@
       <c r="F2" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1387,8 +1560,11 @@
       <c r="F3" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1407,8 +1583,11 @@
       <c r="F4" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1427,8 +1606,11 @@
       <c r="F5" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1629,11 @@
       <c r="F6" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,8 +1652,11 @@
       <c r="F7" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1487,8 +1675,11 @@
       <c r="F8" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1507,8 +1698,11 @@
       <c r="F9" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,8 +1721,11 @@
       <c r="F10" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1547,8 +1744,11 @@
       <c r="F11" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1567,8 +1767,11 @@
       <c r="F12" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1587,8 +1790,11 @@
       <c r="F13" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,8 +1807,11 @@
       <c r="D14" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,8 +1830,11 @@
       <c r="F15" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1641,8 +1853,11 @@
       <c r="F16" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1661,8 +1876,11 @@
       <c r="F17" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1681,8 +1899,11 @@
       <c r="F18" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,8 +1922,11 @@
       <c r="F19" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1715,8 +1939,11 @@
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1735,8 +1962,11 @@
       <c r="F21" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1749,8 +1979,11 @@
       <c r="D22" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1763,8 +1996,11 @@
       <c r="D23" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,8 +2019,11 @@
       <c r="F24" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1803,8 +2042,11 @@
       <c r="F25" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -1823,8 +2065,11 @@
       <c r="F26" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +2088,11 @@
       <c r="F27" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,8 +2105,11 @@
       <c r="D28" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1877,8 +2128,11 @@
       <c r="F29" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1897,8 +2151,11 @@
       <c r="F30" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1911,8 +2168,11 @@
       <c r="D31" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1931,8 +2191,11 @@
       <c r="F32" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1951,8 +2214,11 @@
       <c r="F33" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1971,8 +2237,11 @@
       <c r="F34" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1991,8 +2260,11 @@
       <c r="F35" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -2005,8 +2277,11 @@
       <c r="D36" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -2019,8 +2294,11 @@
       <c r="D37" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2039,8 +2317,11 @@
       <c r="F38" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2059,8 +2340,11 @@
       <c r="F39" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2079,8 +2363,11 @@
       <c r="F40" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2099,8 +2386,11 @@
       <c r="F41" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2113,8 +2403,11 @@
       <c r="D42" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -2127,8 +2420,11 @@
       <c r="D43" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2147,8 +2443,11 @@
       <c r="F44" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2167,8 +2466,11 @@
       <c r="F45" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2187,8 +2489,11 @@
       <c r="F46" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2201,8 +2506,11 @@
       <c r="D47" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,8 +2529,11 @@
       <c r="F48" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2241,8 +2552,11 @@
       <c r="F49" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2261,8 +2575,11 @@
       <c r="F50" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2281,8 +2598,11 @@
       <c r="F51" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2301,7 +2621,196 @@
       <c r="F52" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
+      <c r="G52" s="3">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="1">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="1">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" s="3">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
